--- a/server/files/data_template_02.xlsx
+++ b/server/files/data_template_02.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3925196-89E3-44D6-A107-70F15F3B01B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0217F4A1-D67E-489E-812F-206ADBB9B0AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Data" sheetId="1" r:id="rId1"/>
-    <sheet name="R" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" r:id="rId1"/>
+    <sheet name="Company A" sheetId="1" r:id="rId2"/>
+    <sheet name="Company B" sheetId="3" r:id="rId3"/>
+    <sheet name="Company C" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>Inflow</t>
   </si>
@@ -53,21 +55,6 @@
     <t>Weighting</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Cost of sales</t>
-  </si>
-  <si>
-    <t>Interest payable</t>
-  </si>
-  <si>
-    <t>Interest receivable</t>
-  </si>
-  <si>
-    <t>Admin expenses</t>
-  </si>
-  <si>
     <t>Other payables</t>
   </si>
   <si>
@@ -75,6 +62,18 @@
   </si>
   <si>
     <t>In/Out</t>
+  </si>
+  <si>
+    <t>Data after the first blank row will not be parsed.</t>
+  </si>
+  <si>
+    <t>Data after the first empty row#1 cell will not be parsed.</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Litigations</t>
   </si>
 </sst>
 </file>
@@ -83,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,19 +109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,8 +125,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -224,25 +217,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,58 +233,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,17 +275,20 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,381 +575,980 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3291547-D15F-426A-901D-9E8A50FFE02D}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>578278</v>
+      </c>
+      <c r="D13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>652441</v>
+      </c>
+      <c r="E13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>425385</v>
+      </c>
+      <c r="F13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>622863</v>
+      </c>
+      <c r="G13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>330685</v>
+      </c>
+      <c r="H13" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>461597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>458689</v>
+      </c>
+      <c r="D14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>569101</v>
+      </c>
+      <c r="E14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>588885</v>
+      </c>
+      <c r="F14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>738021</v>
+      </c>
+      <c r="G14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>595325</v>
+      </c>
+      <c r="H14" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>406990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>582351</v>
+      </c>
+      <c r="D15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>457463</v>
+      </c>
+      <c r="E15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>710474</v>
+      </c>
+      <c r="F15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>744620</v>
+      </c>
+      <c r="G15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>378045</v>
+      </c>
+      <c r="H15" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>486336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>534677</v>
+      </c>
+      <c r="D16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>710754</v>
+      </c>
+      <c r="E16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>270789</v>
+      </c>
+      <c r="F16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>702150</v>
+      </c>
+      <c r="G16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>295486</v>
+      </c>
+      <c r="H16" s="4">
+        <f ca="1">RANDBETWEEN(Info!$B$3,Info!$B$4)</f>
+        <v>702931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:L7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24">
+      <c r="B3" s="15">
         <v>0.75</v>
       </c>
-      <c r="H3" s="25">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
         <v>0.9</v>
       </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2015</v>
       </c>
       <c r="B4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$1,'R'!$B$2)</f>
-        <v>64630</v>
+        <v>300919</v>
       </c>
       <c r="C4" s="4">
-        <f ca="1">-RANDBETWEEN('R'!$B$1,'R'!$B$2)</f>
-        <v>-53039</v>
+        <v>315500</v>
       </c>
       <c r="D4" s="4">
-        <f ca="1">-RANDBETWEEN('R'!$B$1,'R'!$B$2)</f>
-        <v>-78931</v>
+        <v>315082</v>
       </c>
       <c r="E4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$1,'R'!$B$2)</f>
-        <v>63760</v>
-      </c>
-      <c r="F4" s="17">
-        <f ca="1">-RANDBETWEEN('R'!$B$1,'R'!$B$2)</f>
-        <v>-81921</v>
+        <v>-553128</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-253604</v>
       </c>
       <c r="G4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>634124</v>
-      </c>
-      <c r="H4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>743316</v>
-      </c>
-      <c r="I4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>299446</v>
-      </c>
-      <c r="J4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>367898</v>
-      </c>
-      <c r="K4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>612397</v>
-      </c>
-      <c r="L4" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>586355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-294103</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22">
+        <f>SUM(B4:G4)</f>
+        <v>-169334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2016</v>
       </c>
-      <c r="B5" s="8">
-        <f ca="1">B4*1.05</f>
-        <v>67861.5</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5:C7" ca="1" si="0">C4*1.05</f>
-        <v>-55690.950000000004</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" ref="D5:D7" ca="1" si="1">D4*1.05</f>
-        <v>-82877.55</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:F7" ca="1" si="2">E4*1.05</f>
-        <v>66948</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" ref="F5:F7" ca="1" si="3">F4*1.05</f>
-        <v>-86017.05</v>
+      <c r="B5" s="4">
+        <v>504406</v>
+      </c>
+      <c r="C5" s="4">
+        <v>361121</v>
+      </c>
+      <c r="D5" s="4">
+        <v>604565</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-356466</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-720948</v>
       </c>
       <c r="G5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>520833</v>
-      </c>
-      <c r="H5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>493962</v>
-      </c>
-      <c r="I5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>460950</v>
-      </c>
-      <c r="J5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>329795</v>
-      </c>
-      <c r="K5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>456606</v>
-      </c>
-      <c r="L5" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>605525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-479057</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22">
+        <f>SUM(B5:G5)</f>
+        <v>-86379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
-      <c r="B6" s="8">
-        <f t="shared" ref="B6:B7" ca="1" si="4">B5*1.05</f>
-        <v>71254.574999999997</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-58475.497500000005</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-87021.427500000005</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>70295.400000000009</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>-90317.902500000011</v>
+      <c r="B6" s="4">
+        <v>571131</v>
+      </c>
+      <c r="C6" s="4">
+        <v>282089</v>
+      </c>
+      <c r="D6" s="4">
+        <v>605376</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-462039</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-615675</v>
       </c>
       <c r="G6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>560174</v>
-      </c>
-      <c r="H6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>630752</v>
-      </c>
-      <c r="I6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>555054</v>
-      </c>
-      <c r="J6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>677622</v>
-      </c>
-      <c r="K6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>412497</v>
-      </c>
-      <c r="L6" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>736722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-455148</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="22">
+        <f>SUM(B6:G6)</f>
+        <v>-74266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2018</v>
       </c>
-      <c r="B7" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>74817.303750000006</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-61399.272375000008</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-91372.498875000005</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>73810.170000000013</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>-94833.797625000021</v>
+      <c r="B7" s="4">
+        <v>646626</v>
+      </c>
+      <c r="C7" s="4">
+        <v>333832</v>
+      </c>
+      <c r="D7" s="4">
+        <v>687830</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-394367</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-332300</v>
       </c>
       <c r="G7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>544097</v>
-      </c>
-      <c r="H7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>492745</v>
-      </c>
-      <c r="I7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>529728</v>
-      </c>
-      <c r="J7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>293092</v>
-      </c>
-      <c r="K7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>603280</v>
-      </c>
-      <c r="L7" s="4">
-        <f ca="1">RANDBETWEEN('R'!$B$3,'R'!$B$4)</f>
-        <v>668659</v>
-      </c>
+        <v>-491464</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22">
+        <f>SUM(B7:G7)</f>
+        <v>450157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3291547-D15F-426A-901D-9E8A50FFE02D}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE3981-36F1-4CF5-A5E5-E1592FD08971}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="4">
+        <v>513623</v>
+      </c>
+      <c r="C4" s="4">
+        <v>719456</v>
+      </c>
+      <c r="D4" s="4">
+        <v>430347</v>
+      </c>
+      <c r="E4" s="4">
+        <v>571026</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-421596</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-353658</v>
+      </c>
+      <c r="H4" s="4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>750000</v>
-      </c>
+      <c r="I4" s="4">
+        <v>-321345</v>
+      </c>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="4">
+        <v>377793</v>
+      </c>
+      <c r="C5" s="4">
+        <v>571670</v>
+      </c>
+      <c r="D5" s="4">
+        <v>533489</v>
+      </c>
+      <c r="E5" s="4">
+        <v>405420</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-280285</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-680065</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-150000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-676494</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="4">
+        <v>286191</v>
+      </c>
+      <c r="C6" s="4">
+        <v>462622</v>
+      </c>
+      <c r="D6" s="4">
+        <v>552653</v>
+      </c>
+      <c r="E6" s="4">
+        <v>662400</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-433621</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-676220</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-348837</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="4">
+        <v>597221</v>
+      </c>
+      <c r="C7" s="4">
+        <v>492239</v>
+      </c>
+      <c r="D7" s="4">
+        <v>362808</v>
+      </c>
+      <c r="E7" s="4">
+        <v>508344</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-503729</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-429423</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-150000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-373553</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="4">
+        <v>486175</v>
+      </c>
+      <c r="C8" s="4">
+        <v>670074</v>
+      </c>
+      <c r="D8" s="4">
+        <v>349315</v>
+      </c>
+      <c r="E8" s="4">
+        <v>403337</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-647775</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-625799</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-445425</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="4">
+        <v>649374</v>
+      </c>
+      <c r="C9" s="4">
+        <v>294613</v>
+      </c>
+      <c r="D9" s="4">
+        <v>357678</v>
+      </c>
+      <c r="E9" s="4">
+        <v>389328</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-436440</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-432576</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-150000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-445425</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C172AEB8-8A8B-479C-AD3C-866E0D1F34C4}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="4">
+        <v>586223</v>
+      </c>
+      <c r="C4" s="4">
+        <v>262926</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-745831</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-438024</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="4">
+        <v>535440</v>
+      </c>
+      <c r="C5" s="4">
+        <v>355916</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-279062</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-569248</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="4">
+        <v>563491</v>
+      </c>
+      <c r="C6" s="4">
+        <v>254001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-269523</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-664583</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>